--- a/2_CodeMappingTemplates/Regulatory/XXre_Regulatory Schema Mapping to WaDE.xlsx
+++ b/2_CodeMappingTemplates/Regulatory/XXre_Regulatory Schema Mapping to WaDE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\2_CodeMappingTemplates\Regulatory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4304B9-62DC-43BC-9916-53BF2C946B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF890CEE-566F-48B1-AFA4-33954CE3978A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="645" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
+    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="645" activeTab="2" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="142">
   <si>
     <t>Name</t>
   </si>
@@ -118,9 +118,6 @@
   </si>
   <si>
     <t>OrganizationContactName</t>
-  </si>
-  <si>
-    <t>OrganizationDataMappingURL</t>
   </si>
   <si>
     <t>OrganizationName</t>
@@ -403,12 +400,6 @@
   </si>
   <si>
     <t>Name of the contact person for the organization.</t>
-  </si>
-  <si>
-    <t>https://github.com/WSWCWaterDataExchange/WaDE2.0</t>
-  </si>
-  <si>
-    <t>A URL to WaDE GitHub repository page for the provided data.</t>
   </si>
   <si>
     <t>Utah Division of Water Resources</t>
@@ -1456,7 +1447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE91C3C-F676-4E77-8227-802554E4B42D}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
@@ -1470,10 +1461,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="69" t="s">
         <v>104</v>
-      </c>
-      <c r="B1" s="69" t="s">
-        <v>105</v>
       </c>
       <c r="C1" s="69" t="s">
         <v>5</v>
@@ -1481,31 +1472,31 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="71" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="70" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="71" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C3" s="70" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="71" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" s="70" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="70"/>
     </row>
@@ -1519,7 +1510,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="71" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="70"/>
     </row>
@@ -1541,7 +1532,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="72" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1583,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="79" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D1" s="79" t="s">
         <v>2</v>
@@ -1592,13 +1583,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>4</v>
@@ -1612,7 +1603,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>21</v>
@@ -1632,15 +1623,15 @@
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
       <c r="K2" s="82" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>8</v>
@@ -1662,10 +1653,10 @@
         <v>8</v>
       </c>
       <c r="J3" s="54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K3" s="48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -1673,7 +1664,7 @@
         <v>23</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>8</v>
@@ -1696,12 +1687,12 @@
         <v>2013</v>
       </c>
       <c r="K4" s="48" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="F7" s="78" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -1739,9 +1730,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{203F7812-755D-4EFC-B094-8BF895453DC0}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
@@ -1770,22 +1761,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="E1" s="29" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>4</v>
@@ -1829,7 +1820,7 @@
         <v>8</v>
       </c>
       <c r="K2" s="74" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1859,10 +1850,10 @@
         <v>8</v>
       </c>
       <c r="J3" s="77" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K3" s="74" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -1892,10 +1883,10 @@
         <v>8</v>
       </c>
       <c r="J4" s="77" t="s">
+        <v>116</v>
+      </c>
+      <c r="K4" s="74" t="s">
         <v>117</v>
-      </c>
-      <c r="K4" s="74" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -1925,10 +1916,10 @@
         <v>8</v>
       </c>
       <c r="J5" s="77" t="s">
+        <v>118</v>
+      </c>
+      <c r="K5" s="74" t="s">
         <v>119</v>
-      </c>
-      <c r="K5" s="74" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -1958,10 +1949,10 @@
         <v>8</v>
       </c>
       <c r="J6" s="77" t="s">
+        <v>120</v>
+      </c>
+      <c r="K6" s="74" t="s">
         <v>121</v>
-      </c>
-      <c r="K6" s="74" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -1991,10 +1982,10 @@
         <v>8</v>
       </c>
       <c r="J7" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="K7" s="74" t="s">
         <v>123</v>
-      </c>
-      <c r="K7" s="74" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -2008,7 +1999,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>8</v>
@@ -2024,10 +2015,10 @@
         <v>8</v>
       </c>
       <c r="J8" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="K8" s="74" t="s">
         <v>125</v>
-      </c>
-      <c r="K8" s="74" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -2041,7 +2032,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>8</v>
@@ -2057,10 +2048,10 @@
         <v>8</v>
       </c>
       <c r="J9" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="K9" s="74" t="s">
         <v>127</v>
-      </c>
-      <c r="K9" s="74" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -2068,7 +2059,7 @@
         <v>30</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>8</v>
@@ -2077,7 +2068,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="31" t="s">
@@ -2090,49 +2081,19 @@
         <v>8</v>
       </c>
       <c r="J10" s="77" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="K10" s="74" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" s="76" t="s">
-        <v>8</v>
-      </c>
-      <c r="J11" s="77" t="s">
-        <v>106</v>
-      </c>
-      <c r="K11" s="74" t="s">
-        <v>131</v>
+    <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="F12" s="78" t="s">
+        <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="F13" s="78" t="s">
-        <v>142</v>
-      </c>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18"/>
@@ -2155,12 +2116,9 @@
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:J12">
-    <sortCondition ref="A5:A12"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:J11">
+    <sortCondition ref="A5:A11"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2200,7 +2158,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -2209,13 +2167,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>4</v>
@@ -2229,7 +2187,7 @@
     </row>
     <row r="2" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>21</v>
@@ -2259,12 +2217,12 @@
         <v>8</v>
       </c>
       <c r="K2" s="82" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>12</v>
@@ -2285,10 +2243,10 @@
         <v>8</v>
       </c>
       <c r="J3" s="87" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K3" s="82" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
@@ -2298,7 +2256,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>8</v>
@@ -2319,7 +2277,7 @@
         <v>4326</v>
       </c>
       <c r="K4" s="82" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
@@ -2347,17 +2305,17 @@
         <v>8</v>
       </c>
       <c r="J5" s="82" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K5" s="82" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>16</v>
@@ -2378,17 +2336,17 @@
         <v>8</v>
       </c>
       <c r="J6" s="81" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K6" s="82" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>16</v>
@@ -2412,14 +2370,14 @@
         <v>48001</v>
       </c>
       <c r="K7" s="82" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
     </row>
     <row r="8" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>17</v>
@@ -2441,17 +2399,17 @@
       </c>
       <c r="J8" s="85"/>
       <c r="K8" s="82" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>47</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>48</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>8</v>
@@ -2472,17 +2430,17 @@
         <v>22</v>
       </c>
       <c r="K9" s="82" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>49</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>50</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>8</v>
@@ -2500,10 +2458,10 @@
         <v>8</v>
       </c>
       <c r="J10" s="88" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K10" s="82" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
@@ -2513,7 +2471,7 @@
         <v>18</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>8</v>
@@ -2531,10 +2489,10 @@
         <v>8</v>
       </c>
       <c r="J11" s="81" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K11" s="82" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
@@ -2634,7 +2592,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="110" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D1" s="110" t="s">
         <v>2</v>
@@ -2643,13 +2601,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>4</v>
@@ -2663,7 +2621,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>21</v>
@@ -2683,12 +2641,12 @@
       <c r="I2" s="33"/>
       <c r="J2" s="114"/>
       <c r="K2" s="38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>16</v>
@@ -2709,15 +2667,15 @@
         <v>8</v>
       </c>
       <c r="J3" s="112" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K3" s="38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>16</v>
@@ -2738,18 +2696,18 @@
         <v>8</v>
       </c>
       <c r="J4" s="112" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K4" s="38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>57</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>58</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>8</v>
@@ -2767,18 +2725,18 @@
         <v>8</v>
       </c>
       <c r="J5" s="112" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K5" s="38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>8</v>
@@ -2796,15 +2754,15 @@
         <v>8</v>
       </c>
       <c r="J6" s="112" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K6" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>16</v>
@@ -2825,18 +2783,18 @@
         <v>8</v>
       </c>
       <c r="J7" s="112" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K7" s="38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>8</v>
@@ -2854,18 +2812,18 @@
         <v>8</v>
       </c>
       <c r="J8" s="112" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K8" s="38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>8</v>
@@ -2884,15 +2842,15 @@
       </c>
       <c r="J9" s="112"/>
       <c r="K9" s="48" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>8</v>
@@ -2910,18 +2868,18 @@
         <v>8</v>
       </c>
       <c r="J10" s="112" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K10" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>8</v>
@@ -2942,15 +2900,15 @@
         <v>39842</v>
       </c>
       <c r="K11" s="48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>8</v>
@@ -2969,12 +2927,12 @@
       </c>
       <c r="J12" s="112"/>
       <c r="K12" s="48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>17</v>
@@ -2995,15 +2953,15 @@
         <v>8</v>
       </c>
       <c r="J13" s="112" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K13" s="38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>17</v>
@@ -3024,10 +2982,10 @@
         <v>8</v>
       </c>
       <c r="J14" s="112" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K14" s="38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -3099,7 +3057,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="110" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D1" s="110" t="s">
         <v>2</v>
@@ -3108,13 +3066,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>4</v>
@@ -3128,7 +3086,7 @@
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="116" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="117" t="s">
         <v>21</v>
@@ -3148,12 +3106,12 @@
       <c r="I2" s="33"/>
       <c r="J2" s="33"/>
       <c r="K2" s="48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>21</v>
@@ -3174,10 +3132,10 @@
         <v>8</v>
       </c>
       <c r="J3" s="89" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K3" s="48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -3203,15 +3161,15 @@
         <v>8</v>
       </c>
       <c r="J4" s="89" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K4" s="48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>21</v>
@@ -3232,15 +3190,15 @@
         <v>8</v>
       </c>
       <c r="J5" s="89" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K5" s="48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>21</v>
@@ -3261,10 +3219,10 @@
         <v>8</v>
       </c>
       <c r="J6" s="89" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K6" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -3383,13 +3341,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="92" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F1" s="93" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G1" s="94" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H1" s="95" t="s">
         <v>4</v>
@@ -3403,7 +3361,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="97" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B2" s="98" t="s">
         <v>21</v>
@@ -3420,12 +3378,12 @@
       <c r="H2" s="101"/>
       <c r="I2" s="101"/>
       <c r="J2" s="102" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="97" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="98" t="s">
         <v>21</v>
@@ -3446,12 +3404,12 @@
         <v>10</v>
       </c>
       <c r="J3" s="102" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="97" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B4" s="98" t="s">
         <v>21</v>
@@ -3472,7 +3430,7 @@
         <v>10755</v>
       </c>
       <c r="J4" s="102" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -3480,7 +3438,7 @@
     </row>
     <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.3">
       <c r="E7" s="78" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">

--- a/2_CodeMappingTemplates/Regulatory/XXre_Regulatory Schema Mapping to WaDE.xlsx
+++ b/2_CodeMappingTemplates/Regulatory/XXre_Regulatory Schema Mapping to WaDE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\2_CodeMappingTemplates\Regulatory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF890CEE-566F-48B1-AFA4-33954CE3978A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8578719-6132-439D-BCDB-413788B86F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="645" activeTab="2" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
+    <workbookView xWindow="28680" yWindow="-1380" windowWidth="38640" windowHeight="21120" tabRatio="645" activeTab="2" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="1" r:id="rId1"/>
@@ -1734,7 +1734,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/2_CodeMappingTemplates/Regulatory/XXre_Regulatory Schema Mapping to WaDE.xlsx
+++ b/2_CodeMappingTemplates/Regulatory/XXre_Regulatory Schema Mapping to WaDE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\2_CodeMappingTemplates\Regulatory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8578719-6132-439D-BCDB-413788B86F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB20A876-5232-41C6-A943-62A2B186161A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1380" windowWidth="38640" windowHeight="21120" tabRatio="645" activeTab="2" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="645" activeTab="1" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="143">
   <si>
     <t>Name</t>
   </si>
@@ -459,13 +459,16 @@
     <t>Surface Water and Groundwater</t>
   </si>
   <si>
-    <t>*Simple, Create this file by hand</t>
-  </si>
-  <si>
     <t>State Web Feature Service / File Input Name</t>
   </si>
   <si>
     <t>*This file created automatically with python scripts.</t>
+  </si>
+  <si>
+    <t>*Create organization.csv file by hand</t>
+  </si>
+  <si>
+    <t>*Create date.csv file by hand</t>
   </si>
 </sst>
 </file>
@@ -1545,9 +1548,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3BE28D8-590B-4A0E-97AD-12782E26EA65}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1586,7 +1589,7 @@
         <v>130</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>113</v>
@@ -1692,7 +1695,7 @@
     </row>
     <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="F7" s="78" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -1732,9 +1735,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{203F7812-755D-4EFC-B094-8BF895453DC0}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1773,7 +1776,7 @@
         <v>130</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>113</v>
@@ -2089,7 +2092,7 @@
     </row>
     <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="F12" s="78" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
@@ -2170,7 +2173,7 @@
         <v>130</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>113</v>
@@ -2604,7 +2607,7 @@
         <v>130</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>113</v>
@@ -3069,7 +3072,7 @@
         <v>130</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>113</v>
@@ -3344,7 +3347,7 @@
         <v>130</v>
       </c>
       <c r="F1" s="93" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G1" s="94" t="s">
         <v>113</v>
@@ -3438,7 +3441,7 @@
     </row>
     <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.3">
       <c r="E7" s="78" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
